--- a/employeeNew.xlsx
+++ b/employeeNew.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">rishi</t>
   </si>
   <si>
-    <t xml:space="preserve">Saurabh</t>
+    <t xml:space="preserve">jjj</t>
   </si>
   <si>
     <t xml:space="preserve">Parvez</t>
@@ -159,7 +159,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -199,7 +199,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/employeeNew.xlsx
+++ b/employeeNew.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">rishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jjj</t>
   </si>
   <si>
     <t xml:space="preserve">Parvez</t>
@@ -159,10 +156,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -204,7 +201,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>22</v>
@@ -212,7 +209,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26</v>
@@ -220,7 +217,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>19</v>
@@ -228,7 +225,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>30</v>
@@ -236,7 +233,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>35</v>
@@ -244,7 +241,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>31</v>
@@ -252,7 +249,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>21</v>

--- a/employeeNew.xlsx
+++ b/employeeNew.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -37,16 +37,13 @@
     <t xml:space="preserve">rishi</t>
   </si>
   <si>
-    <t xml:space="preserve">Parvez</t>
+    <t xml:space="preserve">hh</t>
   </si>
   <si>
     <t xml:space="preserve">Aditya</t>
   </si>
   <si>
     <t xml:space="preserve">Akash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raj</t>
   </si>
   <si>
     <t xml:space="preserve">Rehan</t>
@@ -156,10 +153,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -199,21 +196,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -232,16 +218,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>31</v>
@@ -249,7 +232,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>21</v>
